--- a/DDISExcel/uploadAIO.xlsx
+++ b/DDISExcel/uploadAIO.xlsx
@@ -166,7 +166,7 @@
     <t>ConfigRetesttime</t>
   </si>
   <si>
-    <t>C38(AIO)</t>
+    <t>T88(AIO)</t>
   </si>
   <si>
     <t>C(SIT)</t>
